--- a/data/hotels_by_city/Houston/Houston_shard_500.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_500.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d99051-Reviews-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Wyndham-Houston-West-Energy-Corridor.h18383.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,475 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r430331338-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>99051</t>
+  </si>
+  <si>
+    <t>430331338</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>What a change in 7 months</t>
+  </si>
+  <si>
+    <t>This place has really gone downhill in short time.  Stayed for four nights and only received housekeeping once.  Even after complaining they did it one day and not the next.  Upon arrival I noticed a couple of nasty looking pieces of pizza in the corner of the third floor hallway.  When I left four days later it was still there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston West- Energy Corridor, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>This place has really gone downhill in short time.  Stayed for four nights and only received housekeeping once.  Even after complaining they did it one day and not the next.  Upon arrival I noticed a couple of nasty looking pieces of pizza in the corner of the third floor hallway.  When I left four days later it was still there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r419967215-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419967215</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>nice place if you're on a budget</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and the room was clean. My apt ac went out and wouldn't be fixed for a few days and this hotel did the trick. I like the new modern look they have with the table and bench cushions.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r394020292-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394020292</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>Nasty as heck. I was greated by roaches at the front of my room. I didn't stay a full night afraid of bedbugs or any other thing that could be caught from the nasty room. When I seen a officer on duty there I kind of got a chill I mean why is he even needed?The only thing I was greatful for was the fact the lady allowed me to get my money back</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r337750147-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337750147</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>SCARY AND FILTHY!</t>
+  </si>
+  <si>
+    <t>7 College students in town for Passion2016 denied rooms at the "good" Motel 6 that had been booked 4 month ago. Moved to this "filthy" Motel 6 because they except 18 yr olds. Bad area. Bedding stained. Bathrooms disgusting. Would never shower in it. Cockroaches. Charged us more than original booking.Need I say more! One more work: REFUND!Passion 2016 amazing: Motel 6 not so much...</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r295542812-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295542812</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Disgusting!! Sleep at a rest stop!!!</t>
+  </si>
+  <si>
+    <t>All the other hotels were booked and i have been staying at motel 6 across the country so i chose this one. Sheriff at the front walking the perimeter, the first room had no trash cans and roaches everywhere, the front desk ladt nicely changed rooms (while roaches werw crawling on the counter) The next room had semen stains, pubic hairs, deodersnt crumbles and dirt in the bed. I had to change the sheets and clean the room myself. I slept 2 hours then left. This place is disgusting, take my advice and sleep at a rest stop!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston West- Energy Corridor, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>All the other hotels were booked and i have been staying at motel 6 across the country so i chose this one. Sheriff at the front walking the perimeter, the first room had no trash cans and roaches everywhere, the front desk ladt nicely changed rooms (while roaches werw crawling on the counter) The next room had semen stains, pubic hairs, deodersnt crumbles and dirt in the bed. I had to change the sheets and clean the room myself. I slept 2 hours then left. This place is disgusting, take my advice and sleep at a rest stop!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r276245382-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>276245382</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>NEVER EVER AGAIN</t>
+  </si>
+  <si>
+    <t>Absolutely the worst service ever!!! I go to the office to get a room for the night. Soon as I walk in I'm greeted by front desk clerk and asked to sit it'll be a short wait. I was puzzled because there were no other customers but needless to say I waited 10 minutes before I received service. I got a room for 1 night 2 adults $85.00!!?? Way more than than cost I see advertised but at this point I was just ready to relax. I go to the room to see no microwave,refrigerator you know just the amenities I'm accustomed to at the rate I paid. To make matters worst I'm awakened to sound of the fire alarm going off. My fiancé gets up no fire but this went on over 10 minutes. Finally, they turn the alarm off and we lay back down. Then at 10am someone knocks at the door I asked who it was because I wasn't expecting anyone. The person never responded by the time I looked out the window I see a female walking away so I  assumed she had the wrong room. So my fiancé and I figured we'd have some fun before checking out. Well why we're in the act someone comes to our door with the door key trying to enter our room which we had the latch on but I could see the lady and she could see us...Absolutely the worst service ever!!! I go to the office to get a room for the night. Soon as I walk in I'm greeted by front desk clerk and asked to sit it'll be a short wait. I was puzzled because there were no other customers but needless to say I waited 10 minutes before I received service. I got a room for 1 night 2 adults $85.00!!?? Way more than than cost I see advertised but at this point I was just ready to relax. I go to the room to see no microwave,refrigerator you know just the amenities I'm accustomed to at the rate I paid. To make matters worst I'm awakened to sound of the fire alarm going off. My fiancé gets up no fire but this went on over 10 minutes. Finally, they turn the alarm off and we lay back down. Then at 10am someone knocks at the door I asked who it was because I wasn't expecting anyone. The person never responded by the time I looked out the window I see a female walking away so I  assumed she had the wrong room. So my fiancé and I figured we'd have some fun before checking out. Well why we're in the act someone comes to our door with the door key trying to enter our room which we had the latch on but I could see the lady and she could see us so I yelled, We are in here!! This is the same lady that knocked earlier. It turned out this lady worked there so I get up to what the problem is and why would she just bust in our room since checkout isn't until noon. I talked to this lady and she was not apologetic at all saying she is just doing her job. I called the front office after she left all they did was apologize for her actions. The service I received was horrible and this location just damaged the reputation of Motel 6. I will never get a room at Motel 6 again and I will blog my experience with all my followers.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston West- Energy Corridor, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Absolutely the worst service ever!!! I go to the office to get a room for the night. Soon as I walk in I'm greeted by front desk clerk and asked to sit it'll be a short wait. I was puzzled because there were no other customers but needless to say I waited 10 minutes before I received service. I got a room for 1 night 2 adults $85.00!!?? Way more than than cost I see advertised but at this point I was just ready to relax. I go to the room to see no microwave,refrigerator you know just the amenities I'm accustomed to at the rate I paid. To make matters worst I'm awakened to sound of the fire alarm going off. My fiancé gets up no fire but this went on over 10 minutes. Finally, they turn the alarm off and we lay back down. Then at 10am someone knocks at the door I asked who it was because I wasn't expecting anyone. The person never responded by the time I looked out the window I see a female walking away so I  assumed she had the wrong room. So my fiancé and I figured we'd have some fun before checking out. Well why we're in the act someone comes to our door with the door key trying to enter our room which we had the latch on but I could see the lady and she could see us...Absolutely the worst service ever!!! I go to the office to get a room for the night. Soon as I walk in I'm greeted by front desk clerk and asked to sit it'll be a short wait. I was puzzled because there were no other customers but needless to say I waited 10 minutes before I received service. I got a room for 1 night 2 adults $85.00!!?? Way more than than cost I see advertised but at this point I was just ready to relax. I go to the room to see no microwave,refrigerator you know just the amenities I'm accustomed to at the rate I paid. To make matters worst I'm awakened to sound of the fire alarm going off. My fiancé gets up no fire but this went on over 10 minutes. Finally, they turn the alarm off and we lay back down. Then at 10am someone knocks at the door I asked who it was because I wasn't expecting anyone. The person never responded by the time I looked out the window I see a female walking away so I  assumed she had the wrong room. So my fiancé and I figured we'd have some fun before checking out. Well why we're in the act someone comes to our door with the door key trying to enter our room which we had the latch on but I could see the lady and she could see us so I yelled, We are in here!! This is the same lady that knocked earlier. It turned out this lady worked there so I get up to what the problem is and why would she just bust in our room since checkout isn't until noon. I talked to this lady and she was not apologetic at all saying she is just doing her job. I called the front office after she left all they did was apologize for her actions. The service I received was horrible and this location just damaged the reputation of Motel 6. I will never get a room at Motel 6 again and I will blog my experience with all my followers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r251953821-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251953821</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Not worth it.</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed overnight for business. The room had no microwave, no refrigerator and no dresser in the room. They advertised $49 a night but it was $65 for two people. It was not worth $65. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston West- Energy Corridor, responded to this reviewResponded February 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2015</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed overnight for business. The room had no microwave, no refrigerator and no dresser in the room. They advertised $49 a night but it was $65 for two people. It was not worth $65. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r245861414-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245861414</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>Great bed nothing more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've spent 4 nights.  Great bed. You get what you pay for. They don't serve a bad breakfast like you get at other motels. Why pay for something not worth the extra money?  There are plenty of places to eat close by.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r244092481-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244092481</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Great staff, clean place!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel back in May 2014 and was quite pleased with it, so on a return trip, I stayed here again.  Carol, the evening desk clerk, was fabulous and very accommodating.  She told me that there was on-site security and since I had items in my car that I didn't want to drag to my room, I felt safe knowing that there was a camera on my car, parked by the front of the hotel.My room was very clean and the bed was superb.  The only issue I had was that the faucet at the bathroom sink sprayed me with water every time I washed my hands, which was a bit irritating.  The only other suggestion I would make is that in "non-smoking" rooms, they need to remove the ash trays, since they are not needed.  There was no sign that anyone had smoked in my room.Despite other negative reviews, I have always been treated with respect by the staff at this hotel and will stay here again.  Usually, you are treated the way you treat others.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel back in May 2014 and was quite pleased with it, so on a return trip, I stayed here again.  Carol, the evening desk clerk, was fabulous and very accommodating.  She told me that there was on-site security and since I had items in my car that I didn't want to drag to my room, I felt safe knowing that there was a camera on my car, parked by the front of the hotel.My room was very clean and the bed was superb.  The only issue I had was that the faucet at the bathroom sink sprayed me with water every time I washed my hands, which was a bit irritating.  The only other suggestion I would make is that in "non-smoking" rooms, they need to remove the ash trays, since they are not needed.  There was no sign that anyone had smoked in my room.Despite other negative reviews, I have always been treated with respect by the staff at this hotel and will stay here again.  Usually, you are treated the way you treat others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r226974454-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226974454</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Nighmare, Worst Staff and Hotel ever!!!</t>
+  </si>
+  <si>
+    <t>The worst Hotel and Staff ever!!!! Nightmare!!!
+I requested a non-smoking room, but it was given a room with ashtrays. When complained, they come up with the excuse that all the rooms have ashtrays. I told Kimberly (front desk clerk) that I had not been born yesterday for her to give me such an excuse. She said that if I did not like the ashtrays, I could throw them away. I said that’s not the answer I expected. She said harshly that if I did not like it, I could leave. It was 1 AM, she expects me to leave, right?
+I said that I would complain about her with the corporate office because of harshly responding to a customer; she said I could do it. Because I was already in bed, I was in minor cloths, almost nude. Two minutes later someone was knocking at my door. A harsh male voice asked me to open the door. I got scared because one would never expect anybody at that time. I thought it was service to remove the ashtrays. When I look through the door eye-hole, I realized it was a deputy. I really thought something bad had happened to a member of my family. What a surprise when he tells me in a harsh way to leave the hotel because I had said profanities to the front desk clerk.
+I was astonished! How could this woman dare to lie...The worst Hotel and Staff ever!!!! Nightmare!!!I requested a non-smoking room, but it was given a room with ashtrays. When complained, they come up with the excuse that all the rooms have ashtrays. I told Kimberly (front desk clerk) that I had not been born yesterday for her to give me such an excuse. She said that if I did not like the ashtrays, I could throw them away. I said that’s not the answer I expected. She said harshly that if I did not like it, I could leave. It was 1 AM, she expects me to leave, right?I said that I would complain about her with the corporate office because of harshly responding to a customer; she said I could do it. Because I was already in bed, I was in minor cloths, almost nude. Two minutes later someone was knocking at my door. A harsh male voice asked me to open the door. I got scared because one would never expect anybody at that time. I thought it was service to remove the ashtrays. When I look through the door eye-hole, I realized it was a deputy. I really thought something bad had happened to a member of my family. What a surprise when he tells me in a harsh way to leave the hotel because I had said profanities to the front desk clerk.I was astonished! How could this woman dare to lie to this deputy to get me kick out of the room because I said I would complain about her? This deputy got inside of my room, invaded my privacy, violated my space, and intimidated me. I demanded respect because I was paying for a service. He said they did not provide any service, and to leave. I was furious.  I am complaining about that deputy with the Harris County.I called Corporate, and they said I had to speak with the management of that Motel 6, directly. Sonia, the Assistant Manager, listened to part of my story, and rudely hung up on me. Unbelievable! I recorded the conversation, and all of the conversations I have had with them to prove my claim. Instead of listening carefully and to promise they would call her attention or sanction her behavior, she hung up on me. The cure is worst than the disease. Those people are not taught customer service manners. The rudest hotel staff, I have ever dealt with.The worst experience in that hotel: humiliated, harassed, and violated. According to my findings, this location is very well known for questionable activities. I should have read reviews in advance. Save yourself a nightmare!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>The worst Hotel and Staff ever!!!! Nightmare!!!
+I requested a non-smoking room, but it was given a room with ashtrays. When complained, they come up with the excuse that all the rooms have ashtrays. I told Kimberly (front desk clerk) that I had not been born yesterday for her to give me such an excuse. She said that if I did not like the ashtrays, I could throw them away. I said that’s not the answer I expected. She said harshly that if I did not like it, I could leave. It was 1 AM, she expects me to leave, right?
+I said that I would complain about her with the corporate office because of harshly responding to a customer; she said I could do it. Because I was already in bed, I was in minor cloths, almost nude. Two minutes later someone was knocking at my door. A harsh male voice asked me to open the door. I got scared because one would never expect anybody at that time. I thought it was service to remove the ashtrays. When I look through the door eye-hole, I realized it was a deputy. I really thought something bad had happened to a member of my family. What a surprise when he tells me in a harsh way to leave the hotel because I had said profanities to the front desk clerk.
+I was astonished! How could this woman dare to lie...The worst Hotel and Staff ever!!!! Nightmare!!!I requested a non-smoking room, but it was given a room with ashtrays. When complained, they come up with the excuse that all the rooms have ashtrays. I told Kimberly (front desk clerk) that I had not been born yesterday for her to give me such an excuse. She said that if I did not like the ashtrays, I could throw them away. I said that’s not the answer I expected. She said harshly that if I did not like it, I could leave. It was 1 AM, she expects me to leave, right?I said that I would complain about her with the corporate office because of harshly responding to a customer; she said I could do it. Because I was already in bed, I was in minor cloths, almost nude. Two minutes later someone was knocking at my door. A harsh male voice asked me to open the door. I got scared because one would never expect anybody at that time. I thought it was service to remove the ashtrays. When I look through the door eye-hole, I realized it was a deputy. I really thought something bad had happened to a member of my family. What a surprise when he tells me in a harsh way to leave the hotel because I had said profanities to the front desk clerk.I was astonished! How could this woman dare to lie to this deputy to get me kick out of the room because I said I would complain about her? This deputy got inside of my room, invaded my privacy, violated my space, and intimidated me. I demanded respect because I was paying for a service. He said they did not provide any service, and to leave. I was furious.  I am complaining about that deputy with the Harris County.I called Corporate, and they said I had to speak with the management of that Motel 6, directly. Sonia, the Assistant Manager, listened to part of my story, and rudely hung up on me. Unbelievable! I recorded the conversation, and all of the conversations I have had with them to prove my claim. Instead of listening carefully and to promise they would call her attention or sanction her behavior, she hung up on me. The cure is worst than the disease. Those people are not taught customer service manners. The rudest hotel staff, I have ever dealt with.The worst experience in that hotel: humiliated, harassed, and violated. According to my findings, this location is very well known for questionable activities. I should have read reviews in advance. Save yourself a nightmare!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r225131415-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225131415</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>The worst Hotel Staff ever!!!! Drugs and Prostitution.</t>
+  </si>
+  <si>
+    <t>I requested a non-smoking room, but it was given a room with ashtrays. When complained, they come up with the excuse that all the rooms have ashtrays. I told Kimberly (front desk clerk) that I had not been born yesterday for her to give me such an excuse. She said that if I did not like the ashtrays, I could throw them away. I said that’s not the answer I expected. She said harshly that if I did not like it, I could leave. It was 1 AM, she she expects me to leave, right?
+I said that I would complain about her with the corporate office because of harshly responding to a customer; she said I could do it. Because I was already in bed, I was in minor cloths, almost nude. Two minutes later someone was knocking at my door. A harsh male voice asked me to open the door. I got scared because one would never expect anybody at that time. I thought it was service to remove the ashtrays. When I look through the door eye-hole, I realized it was a deputy. I really thought something bad had happened to a member of my family. What a surprise when he tells me in a harsh way to leave the hotel because I had said profanities to the front desk clerk.
+I was astonished! How could this woman dare to lie to this deputy to get me...I requested a non-smoking room, but it was given a room with ashtrays. When complained, they come up with the excuse that all the rooms have ashtrays. I told Kimberly (front desk clerk) that I had not been born yesterday for her to give me such an excuse. She said that if I did not like the ashtrays, I could throw them away. I said that’s not the answer I expected. She said harshly that if I did not like it, I could leave. It was 1 AM, she she expects me to leave, right?I said that I would complain about her with the corporate office because of harshly responding to a customer; she said I could do it. Because I was already in bed, I was in minor cloths, almost nude. Two minutes later someone was knocking at my door. A harsh male voice asked me to open the door. I got scared because one would never expect anybody at that time. I thought it was service to remove the ashtrays. When I look through the door eye-hole, I realized it was a deputy. I really thought something bad had happened to a member of my family. What a surprise when he tells me in a harsh way to leave the hotel because I had said profanities to the front desk clerk.I was astonished! How could this woman dare to lie to this deputy to get me kick out of the room because I said I would complain about her? This deputy got inside of my room, invaded my privacy, violated my space, intimidated me. I demanded respect because I was paying for a service. He said they did not provide any service, and to leave. I was furious.  I am complaining about that deputy with the Harris County.I called Corporate, and they said I had to speak with the management of that Motel 6, directly. Sonia, the Assistant Manager, listened to part of my story, and rudely hung up on me. I recorded the conversation, and all of the conversations I have had with them to prove my claim. Instead of listening carefully and to promise they would call her attention or sanction her behavior, she hung up on me. The cure is worst than the disease. Those people are not taught customer service manners. The rudest hotel staff, I have ever dealt with.The worst experience in that hotel: humiliated, harassed, and violated. A friend of mine, who was a police officer, told me that this location is very well known for drugs, and prostitution issues. I should have read reviews in advance. Save yourself a nightmare!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston West- Energy Corridor, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>I requested a non-smoking room, but it was given a room with ashtrays. When complained, they come up with the excuse that all the rooms have ashtrays. I told Kimberly (front desk clerk) that I had not been born yesterday for her to give me such an excuse. She said that if I did not like the ashtrays, I could throw them away. I said that’s not the answer I expected. She said harshly that if I did not like it, I could leave. It was 1 AM, she she expects me to leave, right?
+I said that I would complain about her with the corporate office because of harshly responding to a customer; she said I could do it. Because I was already in bed, I was in minor cloths, almost nude. Two minutes later someone was knocking at my door. A harsh male voice asked me to open the door. I got scared because one would never expect anybody at that time. I thought it was service to remove the ashtrays. When I look through the door eye-hole, I realized it was a deputy. I really thought something bad had happened to a member of my family. What a surprise when he tells me in a harsh way to leave the hotel because I had said profanities to the front desk clerk.
+I was astonished! How could this woman dare to lie to this deputy to get me...I requested a non-smoking room, but it was given a room with ashtrays. When complained, they come up with the excuse that all the rooms have ashtrays. I told Kimberly (front desk clerk) that I had not been born yesterday for her to give me such an excuse. She said that if I did not like the ashtrays, I could throw them away. I said that’s not the answer I expected. She said harshly that if I did not like it, I could leave. It was 1 AM, she she expects me to leave, right?I said that I would complain about her with the corporate office because of harshly responding to a customer; she said I could do it. Because I was already in bed, I was in minor cloths, almost nude. Two minutes later someone was knocking at my door. A harsh male voice asked me to open the door. I got scared because one would never expect anybody at that time. I thought it was service to remove the ashtrays. When I look through the door eye-hole, I realized it was a deputy. I really thought something bad had happened to a member of my family. What a surprise when he tells me in a harsh way to leave the hotel because I had said profanities to the front desk clerk.I was astonished! How could this woman dare to lie to this deputy to get me kick out of the room because I said I would complain about her? This deputy got inside of my room, invaded my privacy, violated my space, intimidated me. I demanded respect because I was paying for a service. He said they did not provide any service, and to leave. I was furious.  I am complaining about that deputy with the Harris County.I called Corporate, and they said I had to speak with the management of that Motel 6, directly. Sonia, the Assistant Manager, listened to part of my story, and rudely hung up on me. I recorded the conversation, and all of the conversations I have had with them to prove my claim. Instead of listening carefully and to promise they would call her attention or sanction her behavior, she hung up on me. The cure is worst than the disease. Those people are not taught customer service manners. The rudest hotel staff, I have ever dealt with.The worst experience in that hotel: humiliated, harassed, and violated. A friend of mine, who was a police officer, told me that this location is very well known for drugs, and prostitution issues. I should have read reviews in advance. Save yourself a nightmare!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r203255248-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203255248</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Better to stay at super 8 thieving maid on third floor</t>
+  </si>
+  <si>
+    <t>On easter day/week  I stayed on third floor. I didn't want room service the woman wanted to clean anyway.  althoug I was undressed.  I was awake but in bed. saw her come in. I was wondering why she is taking so long. I saw her steal my $22 tweezers by putting it in trash. I got dressed, went to the hall. then she said no speak English but her English got well when we were late to checkout. she wouldn't give her name, and defense mechanism was to throw me out of the room even though we spoke to the front office for late checkout. Theres better motels in the vicinity. with a safe. dont leave anything out in their rooms. drunk noisy people in the hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>On easter day/week  I stayed on third floor. I didn't want room service the woman wanted to clean anyway.  althoug I was undressed.  I was awake but in bed. saw her come in. I was wondering why she is taking so long. I saw her steal my $22 tweezers by putting it in trash. I got dressed, went to the hall. then she said no speak English but her English got well when we were late to checkout. she wouldn't give her name, and defense mechanism was to throw me out of the room even though we spoke to the front office for late checkout. Theres better motels in the vicinity. with a safe. dont leave anything out in their rooms. drunk noisy people in the hallway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r168631907-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168631907</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Refurbished Old Motel</t>
+  </si>
+  <si>
+    <t>This is an older facility that has rooms that have been "redesigned".  The location is very good and accessible to the interstate.  The room we stayed in was the "Modern" King size bed room.  Although it was very clean and nicely decorated, the furnishing was so sparse as to be useless.  Only two places in the bathroom to hang anything other that the towel racks.  No icebox, microwave, dresser or seating.  The hardwood floors looked nice but provided excellent echoes as my dog paced back and forth throughout the night. The desjkclerk was abrupt and impersonal.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r162352939-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162352939</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Needs Further Upkeeping</t>
+  </si>
+  <si>
+    <t>This is an affordable motel which was a bit cleaner and not as run downed the last time I stayed (16 months ago).  It is a no-frills accommodation with minimal on-site facilities. It does have WiFi which is functional most of the time.  Rooms are small and relatively clean depending on the room  assignment.  It is surrounded with numerous off-site dining options located within walking distance. Easy on and off I-10 accessibility.  The young lady at the front desk was helpful and polite.  This is the last time I will be staying there.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r157044123-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157044123</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>A wolf in sheep's clothing-FLEAS</t>
+  </si>
+  <si>
+    <t>This is an old motel that has been refurbished with Motel 6's new modern look. Cool looking but still a Motel 6. I was on a tight budget so I thought I would try it after looking at the photos on the Motel 6 website. Should have come here to TripAdvisor first! No bed bugs visible but there were fleas in the bed. After the 3rd one showed up we requested another room, which the night clerk promptly provided. Unfortunately this room was an end room on the side of the building that faced I-10 and Hwy 6. This room had also had been refurbished, but had water damage and the vinyl plank flooring was coming up in the room and the vinyl floor in the bathroom had black stains as if mold was growing underneath. Mentioned the flea problem upon checking out and did get an apology.I guess I'll think twice before booking another room at an establishment that boasts about being pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>This is an old motel that has been refurbished with Motel 6's new modern look. Cool looking but still a Motel 6. I was on a tight budget so I thought I would try it after looking at the photos on the Motel 6 website. Should have come here to TripAdvisor first! No bed bugs visible but there were fleas in the bed. After the 3rd one showed up we requested another room, which the night clerk promptly provided. Unfortunately this room was an end room on the side of the building that faced I-10 and Hwy 6. This room had also had been refurbished, but had water damage and the vinyl plank flooring was coming up in the room and the vinyl floor in the bathroom had black stains as if mold was growing underneath. Mentioned the flea problem upon checking out and did get an apology.I guess I'll think twice before booking another room at an establishment that boasts about being pet friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r129257216-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129257216</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>YIPES!!!!!!!</t>
+  </si>
+  <si>
+    <t>The photos of the motel are accurate, room was cute BUT.. First room had a green bugger with nose hairs stuck to the pillow case and semen stains on the bed spread! The floors were nasty. It was a toss up between sleeping with the green bugger or risking walking back to the office. We risked the trip to the office and they gave us a different room. Another trek to the new room and this one was even worse! Several pubic hair on the center of the bottom sheet and more semen stains on the bed spread! This was a very filthy motel and didn't feel safe there in general. I would not recommend staying at this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The photos of the motel are accurate, room was cute BUT.. First room had a green bugger with nose hairs stuck to the pillow case and semen stains on the bed spread! The floors were nasty. It was a toss up between sleeping with the green bugger or risking walking back to the office. We risked the trip to the office and they gave us a different room. Another trek to the new room and this one was even worse! Several pubic hair on the center of the bottom sheet and more semen stains on the bed spread! This was a very filthy motel and didn't feel safe there in general. I would not recommend staying at this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r109183502-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>109183502</t>
+  </si>
+  <si>
+    <t>05/21/2011</t>
+  </si>
+  <si>
+    <t>Ah mess</t>
+  </si>
+  <si>
+    <t>When Me n my boyfriend first got ther we had a dirty room. Condoms Wer everywhere n the room. Some Wer open some Wer closed. Towels Wer wet on the counter. So they gave us another room. Tha next room was ok..so I thought some perverted  man kept callin the room. N Wen my boyfriend would answer he wouldn't say n e thing, so that was it I pakd my things n called for the security guard to escort us out...uh that was a horrible ghetto stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r76639287-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>76639287</t>
+  </si>
+  <si>
+    <t>08/24/2010</t>
+  </si>
+  <si>
+    <t>Ok for one night but very noisy and hard to reach</t>
+  </si>
+  <si>
+    <t>The staff, room and overall was ok, but, we had a had time finding it.  Also the room next to us had some kids that where most likely left alone on a Saturday night and where up till almost 5 am, screaming and playing, did not let us sleep all night. In the day there was people outside drinking and standing around making it feel unsafe. I had to leave my drivers license to get a iron, which was very uncovinient since I went and got it and they asked for the DL and I had to go back take it to them, use the iron and go back to return it, not used to doing that anywhere else I ever staryed. So not really high on my list of places to stay, on a positive note, staff where nice and room was comfy and very modern.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>The staff, room and overall was ok, but, we had a had time finding it.  Also the room next to us had some kids that where most likely left alone on a Saturday night and where up till almost 5 am, screaming and playing, did not let us sleep all night. In the day there was people outside drinking and standing around making it feel unsafe. I had to leave my drivers license to get a iron, which was very uncovinient since I went and got it and they asked for the DL and I had to go back take it to them, use the iron and go back to return it, not used to doing that anywhere else I ever staryed. So not really high on my list of places to stay, on a positive note, staff where nice and room was comfy and very modern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r45260007-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>45260007</t>
+  </si>
+  <si>
+    <t>09/28/2009</t>
+  </si>
+  <si>
+    <t>nice clean hotel on the west side of houston</t>
+  </si>
+  <si>
+    <t>i stayed here one night for after a meeting on the west side of hosuton - it'snothing fancy but it's clean and functional and a good deal for the $38 or so i paid plus tax - i would stay here again</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r32331584-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>32331584</t>
+  </si>
+  <si>
+    <t>06/14/2009</t>
+  </si>
+  <si>
+    <t>Upgrade going on here, some improvements</t>
+  </si>
+  <si>
+    <t>I stopped here because I was exhausted after driving from Deming, NM.  Needed a place to stretch out before getting back on the highway.  Lots of work was going on.  New paint, new flooring, etc.  The room was large but didn't have any chairs.  Desk but no chair.  It appeared the furnishings were incomplete.  There was a used wash cloth hanging in the shower.  Ick.  The rest of the place seemed clean, however.  Internet connection cost extra, which I paid for, but I didn't use it because I was just too tired and went straight to bed.  They allow pets.  No frills.  Be glad they give you tiny little soap bars (2).  I didn't see any bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I stopped here because I was exhausted after driving from Deming, NM.  Needed a place to stretch out before getting back on the highway.  Lots of work was going on.  New paint, new flooring, etc.  The room was large but didn't have any chairs.  Desk but no chair.  It appeared the furnishings were incomplete.  There was a used wash cloth hanging in the shower.  Ick.  The rest of the place seemed clean, however.  Internet connection cost extra, which I paid for, but I didn't use it because I was just too tired and went straight to bed.  They allow pets.  No frills.  Be glad they give you tiny little soap bars (2).  I didn't see any bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r20335522-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>20335522</t>
+  </si>
+  <si>
+    <t>09/24/2008</t>
+  </si>
+  <si>
+    <t>Absolutely Disgusting!</t>
+  </si>
+  <si>
+    <t>This place is so creepy! The linens are frail. The hotel was extremely noisy and it is located in a very dangerous area in town. I was moving across the country and crashed here. Even as a place to sleep, it was problematic.For example, the tub clogged up and was up to my calves with water (even with a quick shower).The air conditioning gave me a soar throat. I believe that there was either mold in the room or it just was not clean. Lastly, there were definitely roaches.  The small German type. I was too exhausted to leave and go to another hotel. I slept 5 hours and woke up to a cockroach on me and that was it. We left immediately and drove to El Paso!DO NOT stay at this horrible place! I still cannot believe I did!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>This place is so creepy! The linens are frail. The hotel was extremely noisy and it is located in a very dangerous area in town. I was moving across the country and crashed here. Even as a place to sleep, it was problematic.For example, the tub clogged up and was up to my calves with water (even with a quick shower).The air conditioning gave me a soar throat. I believe that there was either mold in the room or it just was not clean. Lastly, there were definitely roaches.  The small German type. I was too exhausted to leave and go to another hotel. I slept 5 hours and woke up to a cockroach on me and that was it. We left immediately and drove to El Paso!DO NOT stay at this horrible place! I still cannot believe I did!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1007,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1039,1426 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_500.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_500.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r603006856-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>99051</t>
+  </si>
+  <si>
+    <t>603006856</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>I needed a quick room and found this place. Will not stay here again though. Concrete walls made you feel like you were in prison. My family did not feel safe. People walking by your room at all times of night. As soon as morning hit, we left ASAP.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r528711343-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528711343</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>3 times, not a charm</t>
+  </si>
+  <si>
+    <t>I'm 60 years old and in my life I have stayed at a ton of hotels but this was one of the worst experiences I've ever had. I had booked 3 nights several days earlier than checkin date. A few hours before my first night I called them to let them know I wouldn't be in the first night because of change in plans but I didn't mind them charging me for it but to NOT change my booking for the other 2 nights. The next day I checked in late, sometime after midnight. When I walked in the lobby I didn't see anybody. I saw an empty cola can laying in the middle of the floor on the other side of the counter and a pair of work gloves on the counter. I said "is anybody there", and saw a head pop up behind a little desk in the corner. Black lady had been sleeping. She looked up but didn't even look at me and didn't even get up until I said I need to check in. She finally got up and slowly walked up to the counter. I asked her about the cola can and she just mumbled. She told me my booking had been canceled. "WHAT?" I told her I had called the day before to let them know I wouldn't be there that first night but was told there would be no problem. But,,, there was....I'm 60 years old and in my life I have stayed at a ton of hotels but this was one of the worst experiences I've ever had. I had booked 3 nights several days earlier than checkin date. A few hours before my first night I called them to let them know I wouldn't be in the first night because of change in plans but I didn't mind them charging me for it but to NOT change my booking for the other 2 nights. The next day I checked in late, sometime after midnight. When I walked in the lobby I didn't see anybody. I saw an empty cola can laying in the middle of the floor on the other side of the counter and a pair of work gloves on the counter. I said "is anybody there", and saw a head pop up behind a little desk in the corner. Black lady had been sleeping. She looked up but didn't even look at me and didn't even get up until I said I need to check in. She finally got up and slowly walked up to the counter. I asked her about the cola can and she just mumbled. She told me my booking had been canceled. "WHAT?" I told her I had called the day before to let them know I wouldn't be there that first night but was told there would be no problem. But,,, there was. It took forever for her to get me a room. I went to the room and swiped the keypad and started to open the door but when it opened a couple inches it stopped and in such a way that told me the slider safety lock is what stopped the door and that meant it was occupied. I heard someone stir inside but I said "I'm sorry" and I quickly walked away thinking the next thing I'd hear would be a  gunshot. That room wasn't close to the office and I had to walk back down the stairs with loaded arms with my luggage to go back down to the office. Told her what happened, took several minutes for her to give me another room. Went to that room, this one further away than the first, and when I went inside I noticed it wasn't clean. Looked like someone had just slept in it and left. By now it's VERY late and I'm VERY tired from working long hours that day. Went back to the office with all my stuff and told her what happened. This time I told her she would have to go check the next room out first because I wasn't going to go through this again. She sent the on duty Sheriff to the next room. He returned and said it was fine. Well everything wasn't fine. After I finally got to sleep around 3 AM I was awakened about 3 hours later by the worst smell of cigarette smoke I'd ever smelled. She had put me in a "smoking allowed" room and the occupant in the room next door was smoking. The smoke was coming into my room through the adjoining room door between us. I'm an ex smoker and normally the smell of cigarettes doesn't smell like that smelled. It was "B-A-D". It was mixed in with the overall smell of the room, which was not good at all. So I had a dentist appointment that morning at 9. I god very little sleep. I went to another hotel down the street for the following night. This was the worst experience EVER in my life with a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston West- Energy Corridor, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>I'm 60 years old and in my life I have stayed at a ton of hotels but this was one of the worst experiences I've ever had. I had booked 3 nights several days earlier than checkin date. A few hours before my first night I called them to let them know I wouldn't be in the first night because of change in plans but I didn't mind them charging me for it but to NOT change my booking for the other 2 nights. The next day I checked in late, sometime after midnight. When I walked in the lobby I didn't see anybody. I saw an empty cola can laying in the middle of the floor on the other side of the counter and a pair of work gloves on the counter. I said "is anybody there", and saw a head pop up behind a little desk in the corner. Black lady had been sleeping. She looked up but didn't even look at me and didn't even get up until I said I need to check in. She finally got up and slowly walked up to the counter. I asked her about the cola can and she just mumbled. She told me my booking had been canceled. "WHAT?" I told her I had called the day before to let them know I wouldn't be there that first night but was told there would be no problem. But,,, there was....I'm 60 years old and in my life I have stayed at a ton of hotels but this was one of the worst experiences I've ever had. I had booked 3 nights several days earlier than checkin date. A few hours before my first night I called them to let them know I wouldn't be in the first night because of change in plans but I didn't mind them charging me for it but to NOT change my booking for the other 2 nights. The next day I checked in late, sometime after midnight. When I walked in the lobby I didn't see anybody. I saw an empty cola can laying in the middle of the floor on the other side of the counter and a pair of work gloves on the counter. I said "is anybody there", and saw a head pop up behind a little desk in the corner. Black lady had been sleeping. She looked up but didn't even look at me and didn't even get up until I said I need to check in. She finally got up and slowly walked up to the counter. I asked her about the cola can and she just mumbled. She told me my booking had been canceled. "WHAT?" I told her I had called the day before to let them know I wouldn't be there that first night but was told there would be no problem. But,,, there was. It took forever for her to get me a room. I went to the room and swiped the keypad and started to open the door but when it opened a couple inches it stopped and in such a way that told me the slider safety lock is what stopped the door and that meant it was occupied. I heard someone stir inside but I said "I'm sorry" and I quickly walked away thinking the next thing I'd hear would be a  gunshot. That room wasn't close to the office and I had to walk back down the stairs with loaded arms with my luggage to go back down to the office. Told her what happened, took several minutes for her to give me another room. Went to that room, this one further away than the first, and when I went inside I noticed it wasn't clean. Looked like someone had just slept in it and left. By now it's VERY late and I'm VERY tired from working long hours that day. Went back to the office with all my stuff and told her what happened. This time I told her she would have to go check the next room out first because I wasn't going to go through this again. She sent the on duty Sheriff to the next room. He returned and said it was fine. Well everything wasn't fine. After I finally got to sleep around 3 AM I was awakened about 3 hours later by the worst smell of cigarette smoke I'd ever smelled. She had put me in a "smoking allowed" room and the occupant in the room next door was smoking. The smoke was coming into my room through the adjoining room door between us. I'm an ex smoker and normally the smell of cigarettes doesn't smell like that smelled. It was "B-A-D". It was mixed in with the overall smell of the room, which was not good at all. So I had a dentist appointment that morning at 9. I god very little sleep. I went to another hotel down the street for the following night. This was the worst experience EVER in my life with a hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r430331338-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>99051</t>
-  </si>
-  <si>
     <t>430331338</t>
   </si>
   <si>
@@ -204,9 +255,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r394020292-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -225,7 +273,43 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r374052409-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374052409</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Conveniently placed but very average</t>
+  </si>
+  <si>
+    <t>I booked the hotel because of it's location.  On arrival the check-in took a long time, but the staff fine.  The room itself seems clean, but I had my doubts.  The hotel was nothing special.  There were no food places nearby so your own transport is essential.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r355847173-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355847173</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights.  Nice place reasonably quiet.  By I10 and 6 and full almost every night.  We travel with a cat and asked for no housekeeping during our stay which was no problem.  Interesting room decor.  Clean.  Nice people.  I'd stay there again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r337750147-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -246,9 +330,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r295542812-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -303,6 +384,54 @@
     <t>Absolutely the worst service ever!!! I go to the office to get a room for the night. Soon as I walk in I'm greeted by front desk clerk and asked to sit it'll be a short wait. I was puzzled because there were no other customers but needless to say I waited 10 minutes before I received service. I got a room for 1 night 2 adults $85.00!!?? Way more than than cost I see advertised but at this point I was just ready to relax. I go to the room to see no microwave,refrigerator you know just the amenities I'm accustomed to at the rate I paid. To make matters worst I'm awakened to sound of the fire alarm going off. My fiancé gets up no fire but this went on over 10 minutes. Finally, they turn the alarm off and we lay back down. Then at 10am someone knocks at the door I asked who it was because I wasn't expecting anyone. The person never responded by the time I looked out the window I see a female walking away so I  assumed she had the wrong room. So my fiancé and I figured we'd have some fun before checking out. Well why we're in the act someone comes to our door with the door key trying to enter our room which we had the latch on but I could see the lady and she could see us...Absolutely the worst service ever!!! I go to the office to get a room for the night. Soon as I walk in I'm greeted by front desk clerk and asked to sit it'll be a short wait. I was puzzled because there were no other customers but needless to say I waited 10 minutes before I received service. I got a room for 1 night 2 adults $85.00!!?? Way more than than cost I see advertised but at this point I was just ready to relax. I go to the room to see no microwave,refrigerator you know just the amenities I'm accustomed to at the rate I paid. To make matters worst I'm awakened to sound of the fire alarm going off. My fiancé gets up no fire but this went on over 10 minutes. Finally, they turn the alarm off and we lay back down. Then at 10am someone knocks at the door I asked who it was because I wasn't expecting anyone. The person never responded by the time I looked out the window I see a female walking away so I  assumed she had the wrong room. So my fiancé and I figured we'd have some fun before checking out. Well why we're in the act someone comes to our door with the door key trying to enter our room which we had the latch on but I could see the lady and she could see us so I yelled, We are in here!! This is the same lady that knocked earlier. It turned out this lady worked there so I get up to what the problem is and why would she just bust in our room since checkout isn't until noon. I talked to this lady and she was not apologetic at all saying she is just doing her job. I called the front office after she left all they did was apologize for her actions. The service I received was horrible and this location just damaged the reputation of Motel 6. I will never get a room at Motel 6 again and I will blog my experience with all my followers.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r270455527-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270455527</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Unsafe, Keep Off</t>
+  </si>
+  <si>
+    <t>As soon as i checked in, the cab guys warned me that i was in the wrong place, and i needed to move for my safety. By the time i moved on the third day, someone had already stolen my passport from the room. Its a terrible place, and the management was not helpful in any way, very detached. I regret the place, and the troubles it put me through. Keep off if you care of your safety.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston West- Energy Corridor, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>As soon as i checked in, the cab guys warned me that i was in the wrong place, and i needed to move for my safety. By the time i moved on the third day, someone had already stolen my passport from the room. Its a terrible place, and the management was not helpful in any way, very detached. I regret the place, and the troubles it put me through. Keep off if you care of your safety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r253763510-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253763510</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>High School Reunion Gone Bad</t>
+  </si>
+  <si>
+    <t>I feel like they stocked up on Fabuloso Cleaner.  The maid service must have used a whole bottle in each room and just poured any extra to dry under the bed.  The rooms looked clean but the aroma was so strong that my eyes were red after five minutes.  When I went back to the lobby to complain, the management sent me to a second room which was on the first floor right by the parking lot.  They had told me first that there had been no rooms on the first floor.  The third floor back was the only place where they had any vacant rooms.  Interesting how suddenly a first floor room became vacant!  The first floor room was as bad as the third floor room.  I returned once again to the lobby.  The manager told me that no one had ever complained before!!We overlooked the senior discount and went to the Drury Inn just down the road--where we paid a little more but got both a large room with two beds and both a hotel type dinner AND breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I feel like they stocked up on Fabuloso Cleaner.  The maid service must have used a whole bottle in each room and just poured any extra to dry under the bed.  The rooms looked clean but the aroma was so strong that my eyes were red after five minutes.  When I went back to the lobby to complain, the management sent me to a second room which was on the first floor right by the parking lot.  They had told me first that there had been no rooms on the first floor.  The third floor back was the only place where they had any vacant rooms.  Interesting how suddenly a first floor room became vacant!  The first floor room was as bad as the third floor room.  I returned once again to the lobby.  The manager told me that no one had ever complained before!!We overlooked the senior discount and went to the Drury Inn just down the road--where we paid a little more but got both a large room with two beds and both a hotel type dinner AND breakfast!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r251953821-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -364,6 +493,45 @@
   </si>
   <si>
     <t>I stayed at this hotel back in May 2014 and was quite pleased with it, so on a return trip, I stayed here again.  Carol, the evening desk clerk, was fabulous and very accommodating.  She told me that there was on-site security and since I had items in my car that I didn't want to drag to my room, I felt safe knowing that there was a camera on my car, parked by the front of the hotel.My room was very clean and the bed was superb.  The only issue I had was that the faucet at the bathroom sink sprayed me with water every time I washed my hands, which was a bit irritating.  The only other suggestion I would make is that in "non-smoking" rooms, they need to remove the ash trays, since they are not needed.  There was no sign that anyone had smoked in my room.Despite other negative reviews, I have always been treated with respect by the staff at this hotel and will stay here again.  Usually, you are treated the way you treat others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r241331267-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241331267</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>Hate that the cleaning ladies all park right in front of washroom everyday n make hotel guest park way off from in front</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hate that the cleaning ladies get all the front roll parking spots in front of employees wash room area and make guest have to.park way off from building. Theu should not get front roll parking so rude n inconsiderate.. hate the cartoons channel its for adults horrible </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r237667341-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237667341</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t>I have to say the besides the outside looking (which is not the worst) the hotel was the bad part on my so awesome trip to Houston, they didnt had an iron, nor towels, or a blow dryer??? thing you dont carry bc you know a normal hotel would have. the pool looked nasty enough i didnt get in, any food, the attendant on the front didnt let me borrow the public restroom? and the people next to us was selling some kind of drug... we also asked for a non smoking room which stunk as it was one of the contrary. awful experience for too much moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston West- Energy Corridor, responded to this reviewResponded November 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2014</t>
+  </si>
+  <si>
+    <t>I have to say the besides the outside looking (which is not the worst) the hotel was the bad part on my so awesome trip to Houston, they didnt had an iron, nor towels, or a blow dryer??? thing you dont carry bc you know a normal hotel would have. the pool looked nasty enough i didnt get in, any food, the attendant on the front didnt let me borrow the public restroom? and the people next to us was selling some kind of drug... we also asked for a non smoking room which stunk as it was one of the contrary. awful experience for too much moneyMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r226974454-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
@@ -442,6 +610,45 @@
     <t>On easter day/week  I stayed on third floor. I didn't want room service the woman wanted to clean anyway.  althoug I was undressed.  I was awake but in bed. saw her come in. I was wondering why she is taking so long. I saw her steal my $22 tweezers by putting it in trash. I got dressed, went to the hall. then she said no speak English but her English got well when we were late to checkout. she wouldn't give her name, and defense mechanism was to throw me out of the room even though we spoke to the front office for late checkout. Theres better motels in the vicinity. with a safe. dont leave anything out in their rooms. drunk noisy people in the hallway.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r181322995-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181322995</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Not the best Motel 6...</t>
+  </si>
+  <si>
+    <t>Motel 6 Book says "Modern Rooms" - wonder when the room was updated.  It seemed that all Houston Motel 6's were "completely booked".  Finally we asked for a handicap room (we try not to use these to keep them for people with wheelchairs, but my husband is handicapped and we needed a room downstairs, so we asked).  The room was clean.  However the good comments pretty much end there.  The bedspreads were wrinkled and had cigarette holes in them!  In a No Smoking room.   The "H" rooms need space for wheelchairs to be able to maneuver, however, this room only had the 2 beds, a narrow TV stand with a clothes hanger rod in it, a narrow desk top, and...that's it.  No stand or table for suitcases (Are the handicapped supposed to bend over in their wheelchair to get stuff out of their suitcases on the floor???).  One small shelf to place your toiletries on in the bathroom.  Someone either didn't think this room design through or this Motel 6 hasn't finished furnishing it yet.  From this experience, we'll plan our trips around Houston instead of staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Motel 6 Book says "Modern Rooms" - wonder when the room was updated.  It seemed that all Houston Motel 6's were "completely booked".  Finally we asked for a handicap room (we try not to use these to keep them for people with wheelchairs, but my husband is handicapped and we needed a room downstairs, so we asked).  The room was clean.  However the good comments pretty much end there.  The bedspreads were wrinkled and had cigarette holes in them!  In a No Smoking room.   The "H" rooms need space for wheelchairs to be able to maneuver, however, this room only had the 2 beds, a narrow TV stand with a clothes hanger rod in it, a narrow desk top, and...that's it.  No stand or table for suitcases (Are the handicapped supposed to bend over in their wheelchair to get stuff out of their suitcases on the floor???).  One small shelf to place your toiletries on in the bathroom.  Someone either didn't think this room design through or this Motel 6 hasn't finished furnishing it yet.  From this experience, we'll plan our trips around Houston instead of staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r175586066-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175586066</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>You pay for what you get</t>
+  </si>
+  <si>
+    <t>I was looking for a cheap hotel while visiting family, so I chose to stay here. The hotel was very run down, especially from the outside. The rooms were remodeled inside and were actual quite nice. Our room was very clean and I have no complaints about that or the service from the staff. However, the outside of the building was very run down and was very sketchy. I would recommend staying elsewhere if possible. I do not think I will be returning unless I am hard pressed to find another cheap hotel in the area.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r168631907-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -499,6 +706,45 @@
     <t>This is an old motel that has been refurbished with Motel 6's new modern look. Cool looking but still a Motel 6. I was on a tight budget so I thought I would try it after looking at the photos on the Motel 6 website. Should have come here to TripAdvisor first! No bed bugs visible but there were fleas in the bed. After the 3rd one showed up we requested another room, which the night clerk promptly provided. Unfortunately this room was an end room on the side of the building that faced I-10 and Hwy 6. This room had also had been refurbished, but had water damage and the vinyl plank flooring was coming up in the room and the vinyl floor in the bathroom had black stains as if mold was growing underneath. Mentioned the flea problem upon checking out and did get an apology.I guess I'll think twice before booking another room at an establishment that boasts about being pet friendly.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r154311711-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154311711</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Good price - would stay here again</t>
+  </si>
+  <si>
+    <t>This is at the junction of I-10 and State Highway 6 so expect a bit of traffic noise. I picked it because it was a good price for this location and I thought it was value for money.  My room had been refurbished though it was showing some small signs of wear and tear.  The bed was very firm and I thought it was really comfortable.  Everything looked and smelt clean.  There was a TV on the wall but I didn’t try it.  There was an extra charge of $2.99 a day for wifi.  It worked ok for email and a bit of browsing but I didn’t get the impression it would be up to streaming video though that might depend of how close you are to reception (I wasn’t).  The people on reception were very pleasant.  When I checked in I had been allocated a room on the second floor. I asked if there was anything available on the ground floor and I was switched without any difficulty. I thought this was a good value place to stay and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>This is at the junction of I-10 and State Highway 6 so expect a bit of traffic noise. I picked it because it was a good price for this location and I thought it was value for money.  My room had been refurbished though it was showing some small signs of wear and tear.  The bed was very firm and I thought it was really comfortable.  Everything looked and smelt clean.  There was a TV on the wall but I didn’t try it.  There was an extra charge of $2.99 a day for wifi.  It worked ok for email and a bit of browsing but I didn’t get the impression it would be up to streaming video though that might depend of how close you are to reception (I wasn’t).  The people on reception were very pleasant.  When I checked in I had been allocated a room on the second floor. I asked if there was anything available on the ground floor and I was switched without any difficulty. I thought this was a good value place to stay and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r130900058-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130900058</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>BED BUGS!</t>
+  </si>
+  <si>
+    <t>One night in this place and everyone was covered in bed bug bites!  Management was very matter of fact about this disgusting problem.  Left early after one night...three night had been reserved.  Never stay here!  Beware of this place!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r129257216-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -556,6 +802,39 @@
     <t>The staff, room and overall was ok, but, we had a had time finding it.  Also the room next to us had some kids that where most likely left alone on a Saturday night and where up till almost 5 am, screaming and playing, did not let us sleep all night. In the day there was people outside drinking and standing around making it feel unsafe. I had to leave my drivers license to get a iron, which was very uncovinient since I went and got it and they asked for the DL and I had to go back take it to them, use the iron and go back to return it, not used to doing that anywhere else I ever staryed. So not really high on my list of places to stay, on a positive note, staff where nice and room was comfy and very modern.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r62260658-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>62260658</t>
+  </si>
+  <si>
+    <t>04/23/2010</t>
+  </si>
+  <si>
+    <t>Love the new, euro decor of the remodeled Motel 6's</t>
+  </si>
+  <si>
+    <t>The sparse decor is very relaxing, no rugs, no furniture. It could use a place to put your luggage. It was hard to find at this big intersection of two major roads.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r55777185-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>55777185</t>
+  </si>
+  <si>
+    <t>02/11/2010</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>each time I go out to relax! Motel 6 it's relaxing to be there. If u could stop bye and see for your self!!!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r45260007-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -614,6 +893,42 @@
   </si>
   <si>
     <t>This place is so creepy! The linens are frail. The hotel was extremely noisy and it is located in a very dangerous area in town. I was moving across the country and crashed here. Even as a place to sleep, it was problematic.For example, the tub clogged up and was up to my calves with water (even with a quick shower).The air conditioning gave me a soar throat. I believe that there was either mold in the room or it just was not clean. Lastly, there were definitely roaches.  The small German type. I was too exhausted to leave and go to another hotel. I slept 5 hours and woke up to a cockroach on me and that was it. We left immediately and drove to El Paso!DO NOT stay at this horrible place! I still cannot believe I did!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r20221883-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>20221883</t>
+  </si>
+  <si>
+    <t>09/20/2008</t>
+  </si>
+  <si>
+    <t>Noisy and dirty</t>
+  </si>
+  <si>
+    <t>Motel badly needs refurbishment including new windows and air conditioning.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d99051-r17577368-Motel_6_Houston_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>17577368</t>
+  </si>
+  <si>
+    <t>07/06/2008</t>
+  </si>
+  <si>
+    <t>very good cheap motel</t>
+  </si>
+  <si>
+    <t>this motel is clean and has all you need for a stay, do not expect anything fancy, after all you are not paying a fancy price.  But if you want good basic clean accomodation do not hesitate to stay here.  We stayed for 3 nights.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1463,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1158,25 +1473,17 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1192,7 +1499,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1201,43 +1508,49 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1284,17 +1597,25 @@
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1310,7 +1631,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1319,37 +1640,35 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1357,7 +1676,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1373,7 +1692,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1382,25 +1701,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1411,14 +1730,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1434,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1443,43 +1758,43 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X7" t="s">
-        <v>93</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1810,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1504,34 +1819,34 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>3</v>
@@ -1539,14 +1854,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X8" t="s">
-        <v>101</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1562,7 +1873,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1571,37 +1882,37 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1609,7 +1920,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1625,7 +1936,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1634,45 +1945,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>109</v>
       </c>
-      <c r="J10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" t="s">
-        <v>111</v>
-      </c>
-      <c r="L10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
       <c r="O10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1997,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1697,43 +2006,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
         <v>117</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>118</v>
       </c>
-      <c r="K11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>121</v>
-      </c>
       <c r="O11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -1749,7 +2058,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1758,34 +2067,34 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
         <v>124</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>125</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>126</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>127</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>121</v>
-      </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>1</v>
@@ -1843,20 +2152,14 @@
         <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>1</v>
@@ -1904,25 +2207,21 @@
         <v>142</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>143</v>
-      </c>
-      <c r="O14" t="s">
-        <v>52</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -1931,10 +2230,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1950,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1959,41 +2262,37 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>149</v>
-      </c>
-      <c r="O15" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2001,7 +2300,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2017,7 +2316,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2026,41 +2325,37 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2068,7 +2363,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -2084,7 +2379,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2093,36 +2388,38 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>162</v>
-      </c>
-      <c r="O17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -2168,31 +2465,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
         <v>2</v>
       </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -2208,7 +2509,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2217,41 +2518,35 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2259,7 +2554,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
@@ -2275,7 +2570,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2284,47 +2579,49 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>177</v>
       </c>
-      <c r="J20" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>181</v>
-      </c>
       <c r="O20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>184</v>
+      </c>
+      <c r="X20" t="s">
+        <v>185</v>
+      </c>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -2340,7 +2637,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2349,41 +2646,41 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2391,7 +2688,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -2407,7 +2704,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2416,41 +2713,41 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2458,7 +2755,1031 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" t="s">
+        <v>267</v>
+      </c>
+      <c r="L33" t="s">
+        <v>268</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>275</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>276</v>
+      </c>
+      <c r="J35" t="s">
+        <v>277</v>
+      </c>
+      <c r="K35" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>290</v>
+      </c>
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" t="s">
+        <v>292</v>
+      </c>
+      <c r="L37" t="s">
+        <v>293</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>294</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>21388</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>296</v>
+      </c>
+      <c r="J38" t="s">
+        <v>297</v>
+      </c>
+      <c r="K38" t="s">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s">
+        <v>299</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>300</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
